--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxApLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxApLog.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F551BB55-6AF3-45E3-9AF8-A9AB3B215C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -387,19 +386,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -407,7 +405,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -415,7 +413,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -680,8 +678,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00739C75-6C63-4118-B4A6-CEBC1567DD6C}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{02BDD9C1-4B1C-4C7E-9053-8DA3C5803FB6}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,23 +770,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -824,23 +805,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,14 +980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
@@ -1034,7 +998,7 @@
     <col min="8" max="16384" width="21.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1013,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
@@ -1062,7 +1026,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1039,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -1086,7 +1050,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1063,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1074,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
@@ -1121,7 +1085,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1161,7 +1125,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1180,7 +1144,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="19" customFormat="1">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1199,7 +1163,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="19" customFormat="1">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -1218,7 +1182,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="19" customFormat="1">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -1237,7 +1201,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="15">
         <v>8</v>
       </c>
@@ -1256,7 +1220,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="15">
         <v>9</v>
       </c>
@@ -1277,7 +1241,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="19" customFormat="1">
       <c r="A16" s="15">
         <v>10</v>
       </c>
@@ -1296,7 +1260,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="19" customFormat="1">
       <c r="A17" s="15">
         <v>11</v>
       </c>
@@ -1315,7 +1279,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="19" customFormat="1">
       <c r="A18" s="15">
         <v>12</v>
       </c>
@@ -1334,7 +1298,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="19" customFormat="1">
       <c r="A19" s="15">
         <v>13</v>
       </c>
@@ -1353,7 +1317,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="19" customFormat="1">
       <c r="A20" s="15">
         <v>14</v>
       </c>
@@ -1372,7 +1336,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="19" customFormat="1">
       <c r="A21" s="15">
         <v>15</v>
       </c>
@@ -1391,7 +1355,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="19" customFormat="1">
       <c r="A22" s="15">
         <v>16</v>
       </c>
@@ -1410,7 +1374,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="15">
         <v>17</v>
       </c>
@@ -1424,7 +1388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="15">
         <v>18</v>
       </c>
@@ -1441,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="15">
         <v>19</v>
       </c>
@@ -1455,7 +1419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="15">
         <v>20</v>
       </c>
@@ -1489,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1497,7 +1461,7 @@
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.875" style="2" customWidth="1"/>
@@ -1505,7 +1469,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1527,7 +1491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -1538,7 +1502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
